--- a/ExcelLibrary/ExcelLibrary.Tests/Input/test2.xlsx
+++ b/ExcelLibrary/ExcelLibrary.Tests/Input/test2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>General</t>
   </si>
@@ -34,16 +34,38 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>123,45</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Scientific</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>1.23E+10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr&quot;_-;\-* #,##0.00\ &quot;kr&quot;_-;_-* &quot;-&quot;??\ &quot;kr&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kr&quot;"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="000\ 00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -74,13 +96,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,9 +409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -437,7 +466,47 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>7.175925925925927E-4</v>
+        <v>0.5567361111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9">
+        <v>19161</v>
       </c>
     </row>
   </sheetData>
